--- a/pos_febr/results/paper_table.xlsx
+++ b/pos_febr/results/paper_table.xlsx
@@ -495,19 +495,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.74</v>
+        <v>-0.73</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.78</v>
+        <v>-0.76</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0076</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.8</v>
+        <v>-2.75</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0064</v>
+        <v>0.0083</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,31 +522,31 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.55, 0.54]</t>
+          <t>[-0.55, 0.53]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="E3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5243</v>
+        <v>0.5747</v>
       </c>
       <c r="G3" t="n">
-        <v>450.5</v>
+        <v>0.53</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0378</v>
+        <v>0.6064000000000001</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Mann–Whitney U test</t>
+          <t>Two-Sample two-tailed t-Test</t>
         </is>
       </c>
     </row>
@@ -561,23 +561,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.54, 0.54]</t>
+          <t>[-0.55, 0.53]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.84</v>
+        <v>-0.82</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.9</v>
+        <v>-0.88</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0029</v>
+        <v>0.0024</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.21</v>
+        <v>-3.15</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0024</v>
+        <v>0.0025</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -596,23 +596,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.53, 0.54]</t>
+          <t>[-0.54, 0.53]</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0.9</v>
       </c>
       <c r="E5" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0011</v>
+        <v>0.0014</v>
       </c>
       <c r="G5" t="n">
-        <v>3.54</v>
+        <v>3.52</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0004</v>
+        <v>0.0008</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -631,7 +631,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.24, 0.28]</t>
+          <t>[-0.24, 0.27]</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -641,7 +641,7 @@
         <v>-0.26</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0492</v>
+        <v>0.0477</v>
       </c>
       <c r="G6" t="n">
         <v>5766.5</v>
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.29, 0.29]</t>
+          <t>[-0.29, 0.28]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="E7" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="F7" t="n">
-        <v>0.007</v>
+        <v>0.0114</v>
       </c>
       <c r="G7" t="n">
-        <v>5348.5</v>
+        <v>2.61</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0081</v>
+        <v>0.0056</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Mann–Whitney U test</t>
+          <t>Two-Sample two-tailed t-Test</t>
         </is>
       </c>
     </row>
@@ -701,23 +701,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-0.18, 0.19]</t>
+          <t>[-0.18, 0.18]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7499</v>
+        <v>0.679</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.33</v>
+        <v>-0.42</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7405</v>
+        <v>0.6742</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -740,19 +740,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F9" t="n">
-        <v>0.28</v>
+        <v>0.4323</v>
       </c>
       <c r="G9" t="n">
-        <v>1.09</v>
+        <v>0.8</v>
       </c>
       <c r="H9" t="n">
-        <v>0.276</v>
+        <v>0.4274</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-0.26, 0.26]</t>
+          <t>[-0.25, 0.26]</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -781,13 +781,13 @@
         <v>0.06</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6524</v>
+        <v>0.6478</v>
       </c>
       <c r="G10" t="n">
         <v>0.45</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6546</v>
+        <v>0.6594</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -806,23 +806,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-0.28, 0.29]</t>
+          <t>[-0.29, 0.29]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="E11" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06370000000000001</v>
+        <v>0.0483</v>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06320000000000001</v>
+        <v>0.0478</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -841,23 +841,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[-0.18, 0.19]</t>
+          <t>[-0.18, 0.18]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E12" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0885</v>
+        <v>0.1105</v>
       </c>
       <c r="G12" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0925</v>
+        <v>0.1148</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -880,19 +880,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="E13" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F13" t="n">
-        <v>0.012</v>
+        <v>0.0089</v>
       </c>
       <c r="G13" t="n">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0131</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[-0.55, 0.56]</t>
+          <t>[-0.57, 0.58]</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -921,13 +921,13 @@
         <v>-0.5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0833</v>
+        <v>0.0854</v>
       </c>
       <c r="G14" t="n">
         <v>-1.75</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0832</v>
+        <v>0.09</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -956,17 +956,17 @@
         <v>-0.27</v>
       </c>
       <c r="F15" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>300377</v>
+      </c>
+      <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="G15" t="n">
-        <v>-5.76</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.0001</v>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Two-Sample two-tailed t-Test</t>
+          <t>Mann–Whitney U test</t>
         </is>
       </c>
     </row>

--- a/pos_febr/results/paper_table.xlsx
+++ b/pos_febr/results/paper_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,15 +466,25 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Bootstrap p value corrected</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Stat metric value</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Stat p value</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Stat p value corrected</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Statistical test</t>
         </is>
@@ -491,7 +501,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.54, 0.54]</t>
+          <t>[-0.54, 0.53]</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -501,15 +511,21 @@
         <v>-0.76</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="G2" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="H2" t="n">
         <v>-2.75</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.0083</v>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Two-Sample two-tailed t-Test</t>
         </is>
@@ -526,7 +542,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.55, 0.53]</t>
+          <t>[-0.54, 0.54]</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -536,15 +552,21 @@
         <v>0.15</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5747</v>
+        <v>0.5867</v>
       </c>
       <c r="G3" t="n">
+        <v>0.5867</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.53</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.6064000000000001</v>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="n">
+        <v>0.6166</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6166</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Two-Sample two-tailed t-Test</t>
         </is>
@@ -561,7 +583,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.55, 0.53]</t>
+          <t>[-0.56, 0.54]</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -571,15 +593,21 @@
         <v>-0.88</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0024</v>
+        <v>0.0033</v>
       </c>
       <c r="G4" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="H4" t="n">
         <v>-3.15</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Two-Sample two-tailed t-Test</t>
         </is>
@@ -596,7 +624,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.54, 0.53]</t>
+          <t>[-0.53, 0.52]</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -609,12 +637,18 @@
         <v>0.0014</v>
       </c>
       <c r="G5" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.52</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.0008</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Two-Sample two-tailed t-Test</t>
         </is>
@@ -631,7 +665,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.24, 0.27]</t>
+          <t>[-0.25, 0.27]</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -641,15 +675,21 @@
         <v>-0.26</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0477</v>
+        <v>0.0485</v>
       </c>
       <c r="G6" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="H6" t="n">
         <v>5766.5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0.0111</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="n">
+        <v>0.0222</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Mann–Whitney U test</t>
         </is>
@@ -666,7 +706,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.29, 0.28]</t>
+          <t>[-0.29, 0.29]</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -676,15 +716,21 @@
         <v>0.38</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0114</v>
+        <v>0.0104</v>
       </c>
       <c r="G7" t="n">
+        <v>0.0416</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.61</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.0056</v>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" t="n">
+        <v>0.0059</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0222</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Two-Sample two-tailed t-Test</t>
         </is>
@@ -711,15 +757,21 @@
         <v>-0.04</v>
       </c>
       <c r="F8" t="n">
-        <v>0.679</v>
+        <v>0.6808</v>
       </c>
       <c r="G8" t="n">
+        <v>0.6808</v>
+      </c>
+      <c r="H8" t="n">
         <v>-0.42</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.6742</v>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Two-Sample two-tailed t-Test</t>
         </is>
@@ -732,7 +784,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -746,17 +798,23 @@
         <v>0.04</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4323</v>
+        <v>0.4203</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8</v>
+        <v>0.5604</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4274</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Two-Sample two-tailed t-Test</t>
+        <v>273376.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9552</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.9552</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Mann–Whitney U test</t>
         </is>
       </c>
     </row>
@@ -781,15 +839,21 @@
         <v>0.06</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6478</v>
+        <v>0.6496</v>
       </c>
       <c r="G10" t="n">
+        <v>0.6496</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.45</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.6594</v>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" t="n">
+        <v>0.6574</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.6574</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Two-Sample two-tailed t-Test</t>
         </is>
@@ -816,15 +880,21 @@
         <v>0.29</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0483</v>
+        <v>0.0465</v>
       </c>
       <c r="G11" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.99</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.0478</v>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" t="n">
+        <v>0.0489</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0978</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Two-Sample two-tailed t-Test</t>
         </is>
@@ -841,7 +911,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[-0.18, 0.18]</t>
+          <t>[-0.18, 0.19]</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -851,15 +921,21 @@
         <v>0.15</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1105</v>
+        <v>0.1071</v>
       </c>
       <c r="G12" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.59</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.1148</v>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="I12" t="n">
+        <v>0.1085</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.1447</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Two-Sample two-tailed t-Test</t>
         </is>
@@ -886,15 +962,21 @@
         <v>0.14</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0089</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="G13" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="H13" t="n">
         <v>2.65</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.008399999999999999</v>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="I13" t="n">
+        <v>0.0094</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0376</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Two-Sample two-tailed t-Test</t>
         </is>
@@ -911,7 +993,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[-0.57, 0.58]</t>
+          <t>[-0.58, 0.57]</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -921,15 +1003,21 @@
         <v>-0.5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0854</v>
+        <v>0.0912</v>
       </c>
       <c r="G14" t="n">
+        <v>0.0912</v>
+      </c>
+      <c r="H14" t="n">
         <v>-1.75</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="I14" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Two-Sample two-tailed t-Test</t>
         </is>
@@ -942,7 +1030,7 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -956,17 +1044,23 @@
         <v>-0.27</v>
       </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-5.76</v>
+      </c>
+      <c r="I15" t="n">
         <v>0.0001</v>
       </c>
-      <c r="G15" t="n">
-        <v>300377</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Mann–Whitney U test</t>
+      <c r="J15" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Two-Sample two-tailed t-Test</t>
         </is>
       </c>
     </row>
